--- a/craw_data/Pin/SNA Data set/NodeP.xlsx
+++ b/craw_data/Pin/SNA Data set/NodeP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveswinburneeduau-my.sharepoint.com/personal/104364412_student_swin_edu_au/Documents/Desktop/Homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveswinburneeduau-my.sharepoint.com/personal/104364412_student_swin_edu_au/Documents/Desktop/Design-Innovation-Project/craw_data/Pin/SNA Data set/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1243" documentId="11_F25DC773A252ABDACC104844895B659E5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C54A2E3-C398-488B-BC41-196E4A3EA2EF}"/>
+  <xr:revisionPtr revIDLastSave="1246" documentId="11_F25DC773A252ABDACC104844895B659E5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F0B361C-5823-4264-AE1C-46E6900AB696}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11772" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -1249,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162:A166"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>281</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>282</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>280</v>
